--- a/src/make_cv/files/Service/service data.xlsx
+++ b/src/make_cv/files/Service/service data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF89CBF-915E-644B-AF67-27E74A6F0806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF15D25B-F6E7-744B-8F5C-009BA956E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18180" yWindow="5400" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>This sheet is to keep track of service activty</t>
   </si>
@@ -56,40 +56,25 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Graduate Committee</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Ad-hoc Scientific Computing Committee</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Awards Committee</t>
-  </si>
-  <si>
-    <t>Curriculum Committee</t>
-  </si>
-  <si>
-    <t>Technical chair of the 18th Annual ILASS Conference</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>Chair</t>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Name of activity</t>
+  </si>
+  <si>
+    <t>Professional, University, Department, Community</t>
+  </si>
+  <si>
+    <t>Chair / Member</t>
+  </si>
+  <si>
+    <t>Fall / Spring / Summer</t>
+  </si>
+  <si>
+    <t>Not used for cv</t>
+  </si>
+  <si>
+    <t>Year of activity</t>
   </si>
 </sst>
 </file>
@@ -453,30 +438,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -486,10 +537,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,226 +571,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>2001</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>2002</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>2002</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>2002</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>2002</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>2002</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>2003</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>2003</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>2003</v>
-      </c>
-      <c r="F10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>2003</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>2004</v>
-      </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
     <sortCondition ref="E2:E408"/>

--- a/src/make_cv/files/Service/service data.xlsx
+++ b/src/make_cv/files/Service/service data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF15D25B-F6E7-744B-8F5C-009BA956E1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB77462-4D3F-8C4E-8E5B-259F6A1E004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18180" yWindow="5400" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>This sheet is to keep track of service activty</t>
   </si>
@@ -62,19 +62,40 @@
     <t>Name of activity</t>
   </si>
   <si>
-    <t>Professional, University, Department, Community</t>
-  </si>
-  <si>
-    <t>Chair / Member</t>
-  </si>
-  <si>
-    <t>Fall / Spring / Summer</t>
-  </si>
-  <si>
     <t>Not used for cv</t>
   </si>
   <si>
     <t>Year of activity</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Chair</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter</t>
   </si>
 </sst>
 </file>
@@ -438,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,32 +470,32 @@
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -482,52 +503,73 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -540,7 +582,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -578,6 +620,40 @@
     <sortCondition ref="B2:B408"/>
     <sortCondition ref="A2:A408"/>
   </sortState>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{609748F6-11BA-F949-8ADD-C4BB9F48B39C}">
+      <formula1>1900</formula1>
+      <formula2>2100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{86A260BF-B6DB-AA4A-8B88-9E6935FE7943}">
+      <formula1>0</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDEF71E1-4E4B-524C-8F94-09C9725A5313}">
+          <x14:formula1>
+            <xm:f>Notes!$B$11:$E$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD27590E-1470-4449-B987-34B8F17CF58B}">
+          <x14:formula1>
+            <xm:f>Notes!$B$12:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7251EB6-63BA-4C47-A73D-28DBC65655AB}">
+          <x14:formula1>
+            <xm:f>Notes!$B$13:$E$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/make_cv/files/Service/service data.xlsx
+++ b/src/make_cv/files/Service/service data.xlsx
@@ -1,125 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bhelenbr/Codes/make_cv/src/make_cv/files/Service/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB77462-4D3F-8C4E-8E5B-259F6A1E004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="5400" windowWidth="25800" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12600" yWindow="2580" windowWidth="25800" windowHeight="17300" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notes" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Notes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>This sheet is to keep track of service activty</t>
-  </si>
-  <si>
-    <t>Make an entry in data for every semester you do an activity</t>
-  </si>
-  <si>
-    <t>Estimate your hours / semester</t>
-  </si>
-  <si>
-    <t>Department committee service will be added automatically each semester</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Calendar Year</t>
-  </si>
-  <si>
-    <t>Hours/Semester</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Fields</t>
-  </si>
-  <si>
-    <t>Name of activity</t>
-  </si>
-  <si>
-    <t>Not used for cv</t>
-  </si>
-  <si>
-    <t>Year of activity</t>
-  </si>
-  <si>
-    <t>Professional</t>
-  </si>
-  <si>
-    <t>University</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,24 +68,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -458,118 +432,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col width="14.1640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>This sheet is to keep track of service activty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Make an entry in data for every semester you do an activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Estimate your hours / semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department committee service will be added automatically each semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Name of activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Community</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Member</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fall</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Spring</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Summer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Winter</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Calendar Year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Year of activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hours/Semester</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not used for cv</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not used for cv</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -578,82 +608,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col width="34.1640625" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Position</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Term</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Calendar Year</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Hours/Semester</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
-    <sortCondition ref="E2:E408"/>
-    <sortCondition descending="1" ref="D2:D408"/>
-    <sortCondition ref="B2:B408"/>
-    <sortCondition ref="A2:A408"/>
-  </sortState>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{609748F6-11BA-F949-8ADD-C4BB9F48B39C}">
+  <dataValidations count="5">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$B$11:$E$11</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2:C1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$B$12:$C$12</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Notes!$B$13:$E$13</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="whole" operator="between">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{86A260BF-B6DB-AA4A-8B88-9E6935FE7943}">
+    <dataValidation sqref="F2:F1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="decimal" operator="greaterThan">
       <formula1>0</formula1>
-      <formula2>100000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FDEF71E1-4E4B-524C-8F94-09C9725A5313}">
-          <x14:formula1>
-            <xm:f>Notes!$B$11:$E$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD27590E-1470-4449-B987-34B8F17CF58B}">
-          <x14:formula1>
-            <xm:f>Notes!$B$12:$C$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7251EB6-63BA-4C47-A73D-28DBC65655AB}">
-          <x14:formula1>
-            <xm:f>Notes!$B$13:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>